--- a/hrm-generate/src/main/resources/template/员工月度报表导出模板.xlsx
+++ b/hrm-generate/src/main/resources/template/员工月度报表导出模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRM-Managent\hrm-parent\hrm-employee\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRM-Managent\hrm-parent\hrm-generate\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD32C37C-2204-4CA7-9F21-0709C6F04914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39057FD-E1A8-4EC4-B972-660F74599FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>员工ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>身份证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,19 +187,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{month}月员工报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.gender}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.inServiceStatus}</t>
+    <t>{.theHighestDegreeOfEducation}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.nationalArea}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.maritalStatus}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.birthday}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.bloodType}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户籍所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.domicile}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.politicalOutlook}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治面貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入党时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.timeToJoinTheParty}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.areThereAnyMajorMedicalHistories}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有无重大病史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.detailAddress}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.contactTheMobilePhone}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.emergencyContact}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.emergencyContactNumber}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入学时间</t>
+  </si>
+  <si>
+    <t>毕业时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.graduationTime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.enrolmentTime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.graduateSchool}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.homeCompany}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上家公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.title}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称</t>
+  </si>
+  <si>
+    <t>{.isThereAnyCompetitionRestriction}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有无竞业限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.remarks}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,14 +359,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -255,89 +385,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -357,7 +413,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="ECEFF4"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -612,262 +668,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" t="s">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T2" t="s">
         <v>36</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V2" t="s">
         <v>38</v>
       </c>
-      <c r="V4" t="s">
-        <v>39</v>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:AY2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
